--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ebay_parcer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ebay_parcer\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F0D070-92F8-4583-BF02-A53E9FEFB4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1ECD85-43BD-4D1F-887F-6A44AE57A379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3902CB0-ABEB-284B-B1D0-12B641D4B267}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>0123456789</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Worldwide</t>
   </si>
   <si>
-    <t>Where to Search eBay Listing</t>
-  </si>
-  <si>
-    <t>Frequency (mins)</t>
-  </si>
-  <si>
-    <t>Category / Subcategory</t>
-  </si>
-  <si>
     <t>Books</t>
   </si>
   <si>
@@ -92,15 +83,6 @@
     <t>Computers/Tablets &amp; Networking</t>
   </si>
   <si>
-    <t>Only Items Located In:</t>
-  </si>
-  <si>
-    <t>Items Available to:</t>
-  </si>
-  <si>
-    <t>Item Condition</t>
-  </si>
-  <si>
     <t>Any condition (all items)</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t>Condition not specified by seller</t>
   </si>
   <si>
-    <t>Item Types/Formats:</t>
-  </si>
-  <si>
     <t>All items</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>Classified ads only</t>
   </si>
   <si>
-    <t>Minimum Price</t>
-  </si>
-  <si>
     <t>Keyword/ASIN/Book</t>
   </si>
   <si>
@@ -197,112 +173,16 @@
     <t>3 Years</t>
   </si>
   <si>
-    <t>Anywhere</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>The Atlas of Middle-Earth</t>
-  </si>
-  <si>
-    <t>The Element Encyclopedia of Magical Creatures: The Ultimate A-Z of Fantastic Beings From Myth and Magic</t>
-  </si>
-  <si>
-    <t>140273543X</t>
-  </si>
-  <si>
-    <t>Medical Assisting: Administrative and Clinical Competencies (Hardcover)</t>
-  </si>
-  <si>
-    <t>The Principalship: A Reflective Practice Perspective (7th Edition) (Pearson Educational Leadership) (Hardcover)</t>
-  </si>
-  <si>
-    <t>Ugly's Electrical References, 2014 Edition (Spiral-bound)</t>
-  </si>
-  <si>
-    <t>Society and Technological Change (Paperback)</t>
-  </si>
-  <si>
-    <t>Cultural Diversity: A Primer for the Human Services (Paperback)</t>
-  </si>
-  <si>
-    <t>Damanhur: Temples of Humankind</t>
-  </si>
-  <si>
-    <t>Small Green Roofs: Low-Tech Options for Greener Living</t>
-  </si>
-  <si>
-    <t>Contemporary Musicianship: Analysis and the Artist (Paperback)</t>
-  </si>
-  <si>
-    <t>0739422006</t>
-  </si>
-  <si>
-    <t>1305110706</t>
-  </si>
-  <si>
-    <t>0132613646</t>
-  </si>
-  <si>
-    <t>1449690777</t>
-  </si>
-  <si>
-    <t>1319058256</t>
-  </si>
-  <si>
-    <t>1337563382</t>
-  </si>
-  <si>
-    <t>1556435770</t>
-  </si>
-  <si>
-    <t>1604690593</t>
-  </si>
-  <si>
-    <t>0199990875</t>
-  </si>
-  <si>
-    <t>Karen Wynn Fonstad</t>
-  </si>
-  <si>
-    <t>Matthews, John; Matthews, Caitlin</t>
-  </si>
-  <si>
-    <t>Blesi, Michelle</t>
-  </si>
-  <si>
-    <t>Sergiovanni, Thomas; Green, Reginald</t>
-  </si>
-  <si>
-    <t>Jones &amp; Bartlett Learning</t>
-  </si>
-  <si>
-    <t>Volti, Rudi</t>
-  </si>
-  <si>
-    <t>Diller, Jerry V.</t>
-  </si>
-  <si>
-    <t>Silvia Buffagni</t>
-  </si>
-  <si>
-    <t>Dunnett, Nigel; Gedge, Dusty; Little, John; Snodgrass, Edmund C.</t>
-  </si>
-  <si>
-    <t>Snodgrass, Jennifer Sterling</t>
-  </si>
-  <si>
     <t>book_id</t>
   </si>
   <si>
     <t>max_price</t>
+  </si>
+  <si>
+    <t>Blue-Eyes White Dragon</t>
+  </si>
+  <si>
+    <t>Charizard</t>
   </si>
 </sst>
 </file>
@@ -687,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56660327-218F-D04B-A987-2389703BB0E9}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -708,421 +588,70 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>180</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8">
         <v>31</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
-        <v>31</v>
-      </c>
+      <c r="C2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8">
         <v>25</v>
       </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>180</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>40</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>100</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>180</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>35</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>180</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>40</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>180</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>42</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>180</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>35</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>180</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>31</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>180</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>30</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L12" s="8"/>
@@ -1155,20 +684,8 @@
       <c r="L21" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.bookfinder.com/search/?author=Karen%20Wynn&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{80CB1FC9-B371-8444-B2D5-332642A8FD37}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.bookfinder.com/search/?author=Matthews%20John&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{490E0CF6-BB2B-B74A-B741-3EDD0079CCB8}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.bookfinder.com/search/?author=Blesi%20Michelle&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{8347FD72-EA4A-E748-B53E-8A4A26476B37}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.bookfinder.com/search/?author=Sergiovanni%20Thomas&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{C423EBA6-80D0-2042-887A-A906435F8FE2}"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.bookfinder.com/search/?author=Jones%20%26&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{05412E42-84DE-B443-ACF2-583D900F216A}"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.bookfinder.com/search/?author=Volti%20Rudi&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{2D8EE119-FA2A-CD49-AB6D-EC5C5EC2F97B}"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.bookfinder.com/search/?author=Diller%20Jerry&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{2AD870B0-9647-BB49-AA31-AC8648A5193E}"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.bookfinder.com/search/?author=Silvia%20Buffagni&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{8ACDBC97-E18D-BA47-870B-9C261CAFD039}"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.bookfinder.com/search/?author=Dunnett%20Nigel&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{09DA44A4-20B2-D949-9507-A2837C049973}"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://www.bookfinder.com/search/?author=Snodgrass%20Jennifer&amp;submit=Search&amp;new_used=&amp;currency=USD&amp;binding=&amp;destination=us&amp;st=sr&amp;ac=qr&amp;lang=en&amp;new=&amp;used=&amp;ebooks=&amp;" xr:uid="{548AC3CA-D9D4-1343-A5E5-F27BD55F11C0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -1176,31 +693,31 @@
           <x14:formula1>
             <xm:f>Lists!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D21</xm:sqref>
+          <xm:sqref>D12:D21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6EF6870-34A4-EE4F-A67D-128CB0F3B8FE}">
           <x14:formula1>
             <xm:f>Lists!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E21</xm:sqref>
+          <xm:sqref>E12:E21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0217EFF8-3DE7-8049-89EC-E0D9DFA5EA0A}">
           <x14:formula1>
             <xm:f>Lists!$C$1:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F21</xm:sqref>
+          <xm:sqref>F12:F21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C43480E-93A2-5B42-814E-B11E3B7A3DEF}">
           <x14:formula1>
             <xm:f>Lists!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I21</xm:sqref>
+          <xm:sqref>I12:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A7B32DB-5531-F341-82E0-27AE49F85ECE}">
           <x14:formula1>
             <xm:f>Lists!$E$1:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J21</xm:sqref>
+          <xm:sqref>J12:J21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1233,16 +750,16 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,16 +770,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,16 +787,16 @@
         <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1287,16 +804,16 @@
         <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,16 +821,16 @@
         <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1321,61 +838,61 @@
         <v>180</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1405,31 +922,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1437,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -1455,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
